--- a/data/interim/interaction_matrices/willem_2012/phases/otherplace_phases.xlsx
+++ b/data/interim/interaction_matrices/willem_2012/phases/otherplace_phases.xlsx
@@ -1,115 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="physical_only" sheetId="2" r:id="rId2"/>
-    <sheet name="less_5_min" sheetId="3" r:id="rId3"/>
-    <sheet name="more_5_min" sheetId="4" r:id="rId4"/>
-    <sheet name="less_15_min" sheetId="5" r:id="rId5"/>
-    <sheet name="more_15_min" sheetId="6" r:id="rId6"/>
-    <sheet name="more_one_hour" sheetId="7" r:id="rId7"/>
-    <sheet name="more_four_hours" sheetId="8" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="physical_only" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_5_min" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_5_min" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_15_min" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_15_min" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_one_hour" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_four_hours" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
-  <si>
-    <t>contact_[0,12)</t>
-  </si>
-  <si>
-    <t>contact_[12,18)</t>
-  </si>
-  <si>
-    <t>contact_[18,25)</t>
-  </si>
-  <si>
-    <t>contact_[25,35)</t>
-  </si>
-  <si>
-    <t>contact_[35,45)</t>
-  </si>
-  <si>
-    <t>contact_[45,55)</t>
-  </si>
-  <si>
-    <t>contact_[55,65)</t>
-  </si>
-  <si>
-    <t>contact_[65,75)</t>
-  </si>
-  <si>
-    <t>contact_[75,85)</t>
-  </si>
-  <si>
-    <t>contact_85+</t>
-  </si>
-  <si>
-    <t>age_group</t>
-  </si>
-  <si>
-    <t>[0, 12)</t>
-  </si>
-  <si>
-    <t>[12, 18)</t>
-  </si>
-  <si>
-    <t>[18, 25)</t>
-  </si>
-  <si>
-    <t>[25, 35)</t>
-  </si>
-  <si>
-    <t>[35, 45)</t>
-  </si>
-  <si>
-    <t>[45, 55)</t>
-  </si>
-  <si>
-    <t>[55, 65)</t>
-  </si>
-  <si>
-    <t>[65, 75)</t>
-  </si>
-  <si>
-    <t>[75, 85)</t>
-  </si>
-  <si>
-    <t>85+</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,35 +53,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -440,3185 +360,3569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.60465667592327</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.377068174795207</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.143045629327998</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.273943291907031</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.352737447043562</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.275532910892819</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.29683241913494</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.22072994053033</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.134746552215052</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.0152759422744308</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.7345939461766701</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.7588298226672</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.218391405499388</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.166904735606801</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.318882988391877</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.186654982025971</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0646174736597141</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.13098750659783</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.06482935927647129</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.22775373630254</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.178483878466744</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.213050489263933</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.3511173222369069</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.365172013347531</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.29962781067365</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.177906703782329</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.211043403149073</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0577393864572357</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.285996723320391</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0894420161086025</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.230229900250921</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.475344250425001</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.492103057255552</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.490887996618701</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.4023891588002729</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.203966079090544</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.118897734014786</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.0251127433513964</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.341734446688796</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.158577320575164</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.222199848629562</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.456659888564607</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.7535090079351491</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.474944150131572</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.555661893099982</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.337956773152333</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.149716619534125</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.0118707965263499</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.256407600728427</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0891598921540506</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.17512518937635</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.4375618401275879</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.456207863738772</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.472154276384793</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.4377633397860261</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.310602240702165</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.200047615325326</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0298215682777063</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.328438642011872</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.0366999459379841</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.123635819530859</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.426470308693666</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.6346237779416372</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.5205049821065499</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.734494058758572</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.446339880902259</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.241027608998705</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.0742150234439196</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.35222476502565</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.107290446042385</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.211514188603488</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.311756991657392</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.556650503475743</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.5326057021060421</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.643696901675855</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>1.12086765328066</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.4516860390880829</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0787639630537687</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.2759867187138</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.0681576777081859</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.0742765577253796</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.233261848047661</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.316521593622707</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.440297769755601</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.4461638691531971</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.579760398774156</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.34766035119292</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.0340087020923584</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0918907789453921</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.144696389793449</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.0737066368039014</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.192768908638014</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.403471476060678</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.296915481255979</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0998811331668398</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.0174260428187603</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.812659059417463</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.148676154881949</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.0706637828806969</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.12466137730512</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.171133433432303</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.166520858363378</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.251353426124107</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.185750203999872</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.125626801757437</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.0105426518098386</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.289646834757196</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.4762919334314579</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0901041182113819</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.06771458059022881</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.130672149503654</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0807930430135447</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0307984136736898</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.100601486044387</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.0301797690766353</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.112509138852802</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.07363903559949631</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.10699888543915</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.100324424250978</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.08977739507156199</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0752060008510185</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.0483472146269686</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.0445700617991935</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0203801819123281</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.130146444491041</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0362873383185883</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.0657833741749979</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.158195278945216</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.116522164694385</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.105592392749527</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.147981866773503</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.0679425213419925</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.0555787409525313</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.00643434864257781</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.165795238566546</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.064981952930715</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.0546277449150317</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.108129786962514</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.289471696736209</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.131313217362613</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.117538241020912</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.137974160762664</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.0492607685998065</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.008863783799986921</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.154962300604449</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0385925889772549</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.0439560837549142</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.0941216774360174</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.126132982914027</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.158308081007013</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.111730311306388</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.119567764133558</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.113496380764747</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0134776028227261</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.278117121377178</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.0174921743730253</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0335987760739642</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.156837904361349</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.134240917895523</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.132848455779136</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.28910432094315</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.188468728248012</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.154340676539081</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.0467074863127371</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.296406648776908</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.08240158615560569</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.0446694865454037</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.103848424961853</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.227258016872357</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.205029019821747</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.271803487940169</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.617490921411361</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.279066250433185</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0545735250834359</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.257307724981412</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.031729188703849</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.0262172816710814</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.109038241428027</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.104144062488241</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.24980154472116</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.285698529303208</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.35819473402852</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.197535149528748</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.0206107390269165</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.06341818197216351</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0370738873975557</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.055035876640944</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.0871202601754434</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.25392619406668</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.205725103660948</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0605322709412363</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.151893137354719</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.0548626404662519</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.0278207325396189</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.07015582566633551</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.06422526202100511</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.0535494308889513</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.0264894909757068</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.0297716331339738</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.00697210404917267</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.00174302601229317</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.106881901607486</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.0406049776535512</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0448556189876387</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.0380540710356146</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.0553547586778498</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0502287256587394</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.0211904220711422</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.005488636104237461</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.0442954867781597</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.0366589739629783</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.0602855868028882</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.162092551486774</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.151505237718052</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0843993771321446</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.06696675943150621</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.0334146129846442</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0185801213884328</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.0732426631903725</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0203926678424735</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.10628513490154</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.201443029157038</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.199682538438987</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.18484841339971</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.10413804025648</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.0644559826147284</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.027829299842122</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.008613215495069951</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.0622218722853108</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.027527367817536</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.0921878995570747</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.185300628409816</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.203977086257748</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.167083907497017</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.130830857832932</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.0572059526341515</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.03651373900402</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.00140327260563607</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.0498324539530227</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0239928648791462</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.0493293892522261</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.164767956171208</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.160492538929524</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.153734477854245</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.10915379522236</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.0848032931518066</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.0350112444259735</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.02931004796916</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.046538382239773</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.110370225448788</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.149422471291082</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.129784952428514</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.08734299651892401</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.0826882284498098</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.0161018045011736</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.007496469027370891</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.0475074041149522</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.0173568448998701</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.033489152693175</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.0985193387247912</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.0942242466058122</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.145416586138967</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.119250281535706</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.127956600540278</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.0497831556086542</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0226522823850435</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.0142802029991193</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.00577042091461639</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.0239016647652573</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.0545974569224217</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.07719508291490471</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.07705851835351921</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.0298058941315332</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.0638990352816302</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.00993452489005827</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.00496726244502913</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0104849845014008</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0496282373140374</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.00871302140938013</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.0407547054943939</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.0853920126049285</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.014588495626773</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.0174260428187603</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.452763538568551</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.3222055343289551</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.1152248967883791</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.2037874662406955</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.2885121850225569</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.2219834800038677</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.2703429281592332</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.1909583073963562</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.1277744481658793</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.01353291626213763</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.6277120445691841</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.7182248450136488</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.1735357865117493</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.1288506645711864</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.2635282297140272</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.1364262563672316</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0646174736597141</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.1097970845266878</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.05934072317223384</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.1834582495243803</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.1418249045037657</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.1527649024610448</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.1890247707501329</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.213666775629479</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.2152284335415054</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.1109399443508227</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.1776287901644288</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.03915926506880289</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.2127540601300185</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.069049348266129</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.123944765349381</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.273901221267963</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.2924205188165651</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.306039583218991</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.2982511185437929</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.1395100964758156</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.091068434172664</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.01649952785632645</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.2795125744034852</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.131049952757628</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.1300119490724873</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.271359260154791</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.5495319216774011</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.307860242634555</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.42483103526705</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.2807508205181815</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.113202880530105</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.01046752392071383</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.2065751467754043</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.06516702727490439</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.1257958001241239</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.2727938839563799</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.295715324809248</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.318419798530548</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.328609544563666</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.2257989475503584</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.1650363708993525</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0298215682777063</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.299128594042712</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.0366999459379841</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.07709743729108602</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.316100083244878</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.4852013066505552</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.3907200296780359</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.647151062239648</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.3636516524524491</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.2249258044975314</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.06671855441654871</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.3047173609106978</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.08993360114251489</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.178025035910313</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.2132376529326008</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.4624262568699308</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.3871891159670751</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.524446620140149</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.9929110527403818</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.4019028834794287</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0561116806687252</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.2617065157146807</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.06238725679356951</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.05037489296012229</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.1786643911252393</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.2393265107078023</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.3632392514020818</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.4163579750216638</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.5158613634925258</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.3377258263028617</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.02904143964732927</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.08140579444399131</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.09506815247941161</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.06499361539452127</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.192768908638014</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.3627167705662841</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.2115234686510505</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0852926375400668</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.414717023142852</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.0729987779227307</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.0492610246708433</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.119669342534697</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.143138405807673</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.101656128561501</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.04976041745457199</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.0581484600202179</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.0115919267606618</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.00594230034852856</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.142214230541884</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.194887514448037</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.07124000443287359</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.0741898716094699</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.110211956911627</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.109840372972055</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0173531910177734</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.05252626358206201</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.0154798762232297</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.0784321931091692</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.0582220360919971</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.0903915954525111</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.248488195071158</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.230086338946513</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.197773191127278</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.114655945623224</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.0522510749980694</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0263995396720147</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.124934761528835</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0397573601939128</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.162935317461106</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.276666975481654</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.343776576445036</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.308032889744783</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.164518976645934</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.102286865016546</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.0440007980367613</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.00883559580501464</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.138673464693304</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.0548073038029658</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.140002924147941</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.31901645554904</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.429919168613873</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.31967575835033</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.284320507864647</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.1373919200924</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.0628592433305511</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.00514802926039745</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.09459996607786141</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0524676903988904</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.115593634221937</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.274570653560387</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.3070647249064439</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.257430912020034</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.215366876882557</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.136776359805426</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.07610629740488679</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0054153436413932</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.0550588240406917</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.009855866163347809</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0796798630958666</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.174364684588789</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.324723644158339</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.256073367068362</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.173822440569932</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.152042485219672</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.0415618734903776</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.0109307863234408</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.0927890779928441</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.0430236928317305</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.0523676341784066</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.156342885374917</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.226299004986833</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.23453748749846</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.219270741528095</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.404266359574153</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.111660610160777</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0386120773524941</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.0237424837790275</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.0162746080843718</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.033960647188798</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.08632382736874041</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.132893114570815</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.167507285489176</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.07693478088571271</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.143321675393987</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.0853859776915035</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.0133979630654419</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0357452651983205</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0509095639918874</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.0319644871436984</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.0350051973769458</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.0594254409385877</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.145555442932481</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0393488622256035</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.0174260428187603</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.1476842640651</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.155245680956298</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.092099679511938</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.148863723539665</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.196170461654539</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.165010935809291</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.24358438151575</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.160242372805644</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.117819197425913</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.00933364192590223</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.30244540649051</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.5524720593104079</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.147151401066514</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.0869797395429536</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.20242650640588</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0742049097625979</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0472642826419407</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.0739042571070779</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.0493494830532416</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.146638846776738</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.120261842374747</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.114157197016678</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.102629127165749</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.12221965727153</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.08815911968736249</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.06325075815910509</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.158792328151003</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0313398467852211</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.155413687472462</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0466112794046205</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.06729458278981459</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.198677274943347</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.148326480810516</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.170653834289943</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.224682662338059</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.0977109188722403</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.0721118432622412</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.0104897925621386</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.190051282425709</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.100664676912108</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.074368211014697</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.137643433015567</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.31847816198519</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.151550808264089</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.263607053198173</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.189708464287799</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.08313979268642098</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.00672276726595247</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.153557184902935</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0354456210057855</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.0515268676021447</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.152115362915948</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.145572211947218</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.203375180991142</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.216242856596841</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.171649135503949</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.114602651783029</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0226090056089587</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.26952084180524</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.0268440797746363</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.04395595643499201</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.238128891571325</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.301066720734411</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.25711491569537</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.5312403013204881</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.288586704545106</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.192654577503072</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.0632842371204788</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.255703109297332</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.0605341754751811</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.159146554425081</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.149348667462331</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.312469879429858</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.294335636872109</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.416190386583915</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.7166012937065039</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.336423334634741</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0401518857012746</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.241316257555708</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.0518830696238141</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.0403159105365815</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.141474031989388</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.175768994494091</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.252236408347514</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.356621019749265</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.431815264953834</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.2506361564076761</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.0206107390269165</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0561455137470716</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.060440832456452</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.041742149660203</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.146146349381895</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.34404603512209</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.151360038323498</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0605322709412363</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.7723291412869721</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.125186396480213</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.071998169236411</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.0896830704140445</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.110630383758798</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.0944242815501076</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.145605873514094</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.125352766577031</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.10382516614011</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.00398048801488964</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.243884727338717</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.337527653448267</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0909384684499522</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.05539943762473</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.0944499160550616</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0266137330719615</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0295934860677475</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.0483318296855931</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.0380229207951233</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.114633716021729</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.074320921712364</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.078950170290209</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.0831305565067859</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.04852795286691401</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.029099200445519</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.0455782951538579</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.0203717631991857</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.0261080333730709</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.09362910147269909</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0296878178706196</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.0545092438345929</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.13342243415207</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.0902425995359059</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.119931693811291</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.154810813382063</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.0620380597048507</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.0532478516463264</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.00629494533855797</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.107179471013502</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.0469689985411037</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.0295282863614984</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.0837429778991324</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.208005986518765</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.0726984945627536</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.153648857038855</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.122038398559786</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.0430361442657822</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.00358698801419288</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.0878700965496878</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.0127126398918332</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.0170077770059615</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.106903271204753</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.06983057880028799</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.097538056599712</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.140339969515431</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.0856858022169809</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.0630985200335412</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.0112313997831996</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.161109745038265</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.0168078273149812</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0316745224005791</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.164075532176393</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.175483003857648</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.166865625059348</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.384686643118434</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.171170366126533</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.135507378063357</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.040787475816011</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.200028816420774</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.039588077517446</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.0204172075468974</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.09482360472919719</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.201010133242862</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.146929870007137</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.246856351065117</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.4733306488319389</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.289353406058239</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.0234111227787256</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.212653804137359</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.0399750053062526</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.0335856504011746</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.104465340592993</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.09098434768811541</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.138877624711831</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.250836393169703</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.371398784920759</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.22088201894667</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.0156434765818874</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.0239441952384987</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0362706635309037</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.0222718687996378</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.07260063114464541</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.221741937260325</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.0882526033110206</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0459437753144633</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[0,12)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[12,18)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[18,25)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[25,35)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[35,45)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[45,55)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[55,65)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[65,75)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>contact_[75,85)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>contact_85+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0, 12)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.172894075440908</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.0159824565849047</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.00281436654334025</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.0100431534903146</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.040386515211179</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.0284633972259183</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.0447413722727092</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.0393319017848777</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.0439365453049692</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[12, 18)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.0311365865302182</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.0426327898397406</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0145362301336541</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.0100750339572046</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.0136973084809412</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.0117922949603707</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.009991240118992271</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[18, 25)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.00448096525969948</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.0118799671928803</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.00800159698328849</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.0114463759960255</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.00973776893149092</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0051476561658358</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.0375766981705694</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.00400079849164424</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[25, 35)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.0104850495518193</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.00539907598318794</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.00750546280944065</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.0459950257248825</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.0372731633708635</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.0141286240051017</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.0548870889799237</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.015632405828419</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.0197344294641271</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[35, 45)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.0391267316386639</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.00681153450346446</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.005925237158050579</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.0345886057410729</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.08304275157736299</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.0119920348343255</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.0254455754714633</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.00631565412597423</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.00182458806198867</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[45, 55)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.0264876938570755</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.00300868019847534</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.0125938029870898</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.0115189556332739</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.0473159608115265</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.0451386094849693</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.00906640069824049</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.0171142469154294</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.00188371708318599</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[55, 65)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.0495053592657479</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.00669751636855129</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0261138325583632</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.0581718301018723</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.0290614984365924</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.0536702573901518</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.107771752221306</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.0441114163724197</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.0425215789874485</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[65, 75)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.0627629846268494</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.00818371642247148</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.00400972328013707</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.0238937368172477</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.0104025494627905</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.0155466254800506</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.063616054182884</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.11605663076192</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.0802389385382178</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.00346596504008252</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[75, 85)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.0899904507462725</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.0387163769361326</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.00385743094442488</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.0376678559034853</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.0787112824226095</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.102990473422758</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.0397380995602331</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.00546398868953205</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>85+</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.0121764919580036</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.0130656030752285</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.0160473451894503</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>